--- a/capiq_data/in_process_data/IQ32012.xlsx
+++ b/capiq_data/in_process_data/IQ32012.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F19C98A-B002-4150-97F6-6F963ED4094E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED91A2-F6FD-4434-91F1-266CCFA60459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"8a279464-1822-43f4-b05f-900278686020"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c3acb103-1cae-46e6-bce3-c77289951349"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$81</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$81</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$81</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$81</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$81</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$81</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$81</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$81</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$81</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$81</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$81</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$81</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$81</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$81</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$81</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$81</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$81</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$81</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$81</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$81</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$81</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$81</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$81</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$81</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$81</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$81</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +850,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>47.094999999999999</v>
+        <v>-20.597999999999999</v>
       </c>
       <c r="D2">
-        <v>595.92200000000003</v>
+        <v>17.056999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>205.13200000000001</v>
+        <v>-5.1619999999999999</v>
       </c>
       <c r="G2">
-        <v>637.23099999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>982.06700000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>222.82400000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +886,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.95299999999999996</v>
       </c>
       <c r="N2">
-        <v>388.57900000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>691.90300000000002</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>202.083</v>
+        <v>7.4409999999999998</v>
       </c>
       <c r="Q2">
-        <v>81.391000000000005</v>
+        <v>-7.819</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="S2">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>290.16399999999999</v>
+        <v>28.562999999999999</v>
       </c>
       <c r="U2">
-        <v>194.499</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>96.716999999999999</v>
+        <v>-2.8050000000000002</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>42.856999999999999</v>
+        <v>-0.92700000000000005</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-12.898999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>47.094999999999999</v>
+        <v>-20.597999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>60.232999999999997</v>
+        <v>-8.0009999999999994</v>
       </c>
       <c r="D3">
-        <v>718.553</v>
+        <v>18.359000000000002</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>280.40199999999999</v>
+        <v>3.258</v>
       </c>
       <c r="G3">
-        <v>721.60199999999998</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1090.1880000000001</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>301.00900000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +969,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.501</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>490.31799999999998</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>814.46600000000001</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>235.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-44.08</v>
+        <v>-2.7149999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>275.72199999999998</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>150.41900000000001</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>116.32299999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-86.727999999999994</v>
+        <v>-0.92</v>
       </c>
       <c r="Y3">
-        <v>33.564</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-36.655000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>60.232999999999997</v>
+        <v>-8.0009999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>68.213999999999999</v>
+        <v>-5.5540000000000003</v>
       </c>
       <c r="D4">
-        <v>788.61</v>
+        <v>18.878</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>298.63200000000001</v>
+        <v>5.476</v>
       </c>
       <c r="G4">
-        <v>969.44399999999996</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1570.693</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>533.43600000000004</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1052,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>726.70899999999995</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1236.6590000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>235.185</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>24.788</v>
+        <v>9.8729999999999993</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>334.03399999999999</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>175.20699999999999</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>86.391999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-26.655000000000001</v>
+        <v>11.858000000000001</v>
       </c>
       <c r="Y4">
-        <v>32.985999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-8.1020000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>68.213999999999999</v>
+        <v>-5.5540000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>62.46</v>
+        <v>-4.4649999999999999</v>
       </c>
       <c r="D5">
-        <v>821.83900000000006</v>
+        <v>21.617999999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>285.22199999999998</v>
+        <v>7.7809999999999997</v>
       </c>
       <c r="G5">
-        <v>1190.1130000000001</v>
+        <v>19.552</v>
       </c>
       <c r="H5">
-        <v>1961.558</v>
+        <v>41.63</v>
       </c>
       <c r="I5">
-        <v>750.10699999999997</v>
+        <v>13.715</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1135,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-0.52600000000000002</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>967.96600000000001</v>
+        <v>26.207999999999998</v>
       </c>
       <c r="O5">
-        <v>1573.2059999999999</v>
+        <v>30.303999999999998</v>
       </c>
       <c r="P5">
-        <v>234.65899999999999</v>
+        <v>6.8680000000000003</v>
       </c>
       <c r="Q5">
-        <v>-16.007999999999999</v>
+        <v>1.897</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="T5">
-        <v>388.35199999999998</v>
+        <v>11.326000000000001</v>
       </c>
       <c r="U5">
-        <v>159.19900000000001</v>
+        <v>16.131</v>
       </c>
       <c r="V5">
-        <v>49.530999999999999</v>
+        <v>6.3209999999999997</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-23.957999999999998</v>
+        <v>-0.95199999999999996</v>
       </c>
       <c r="Y5">
-        <v>32.4</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="Z5">
-        <v>-5.8310000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>62.46</v>
+        <v>-4.4649999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>35.219000000000001</v>
+        <v>-4.508</v>
       </c>
       <c r="D6">
-        <v>875.57500000000005</v>
+        <v>30.527000000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>300.42</v>
+        <v>11.082000000000001</v>
       </c>
       <c r="G6">
-        <v>1830.857</v>
+        <v>19.864999999999998</v>
       </c>
       <c r="H6">
-        <v>3069.1959999999999</v>
+        <v>44.74</v>
       </c>
       <c r="I6">
-        <v>86.992000000000004</v>
+        <v>16.292000000000002</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1218,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.254</v>
       </c>
       <c r="N6">
-        <v>1225.0550000000001</v>
+        <v>29.411999999999999</v>
       </c>
       <c r="O6">
-        <v>2426.386</v>
+        <v>33.781999999999996</v>
       </c>
       <c r="P6">
-        <v>400</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="Q6">
-        <v>348.85399999999998</v>
+        <v>-0.46</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="S6">
-        <v>2348</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>642.80999999999995</v>
+        <v>10.958</v>
       </c>
       <c r="U6">
-        <v>508.053</v>
+        <v>15.670999999999999</v>
       </c>
       <c r="V6">
-        <v>65.465999999999994</v>
+        <v>6.5049999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>398.99700000000001</v>
+        <v>-1.167</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="Z6">
-        <v>-84.063999999999993</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>35.219000000000001</v>
+        <v>-2.7290000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-4.5839999999999996</v>
+        <v>-11.336</v>
       </c>
       <c r="D7">
-        <v>869.79100000000005</v>
+        <v>36.36</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>245.858</v>
+        <v>13.138</v>
       </c>
       <c r="G7">
-        <v>2058.741</v>
+        <v>95.031000000000006</v>
       </c>
       <c r="H7">
-        <v>3480.4589999999998</v>
+        <v>117.898</v>
       </c>
       <c r="I7">
-        <v>83.119</v>
+        <v>13.371</v>
       </c>
       <c r="J7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1301,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.55900000000000005</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1446.6659999999999</v>
+        <v>30.166</v>
       </c>
       <c r="O7">
-        <v>2817.0569999999998</v>
+        <v>31.2</v>
       </c>
       <c r="P7">
-        <v>418.22399999999999</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="Q7">
-        <v>-112.06100000000001</v>
+        <v>34.088000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>663.40200000000004</v>
+        <v>86.697999999999993</v>
       </c>
       <c r="U7">
-        <v>395.99200000000002</v>
+        <v>49.759</v>
       </c>
       <c r="V7">
-        <v>19.109000000000002</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>4.032</v>
+        <v>71.587000000000003</v>
       </c>
       <c r="Y7">
-        <v>14.224</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="Z7">
-        <v>-118.857</v>
+        <v>-42.146999999999998</v>
       </c>
       <c r="AA7">
-        <v>-4.5839999999999996</v>
+        <v>-13.115</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>6.1639999999999997</v>
+        <v>-2.85</v>
       </c>
       <c r="D8">
-        <v>889.16300000000001</v>
+        <v>40.731000000000002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>245.73500000000001</v>
+        <v>14.029</v>
       </c>
       <c r="G8">
-        <v>2137.7849999999999</v>
+        <v>101.27500000000001</v>
       </c>
       <c r="H8">
-        <v>3478.29</v>
+        <v>122.907</v>
       </c>
       <c r="I8">
-        <v>90.960999999999999</v>
+        <v>18.148</v>
       </c>
       <c r="J8">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1384,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-0.57699999999999996</v>
+        <v>-0.83599999999999997</v>
       </c>
       <c r="N8">
-        <v>1498.8440000000001</v>
+        <v>34.917000000000002</v>
       </c>
       <c r="O8">
-        <v>2790.0639999999999</v>
+        <v>35.595999999999997</v>
       </c>
       <c r="P8">
-        <v>417.26799999999997</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="Q8">
-        <v>6.2590000000000003</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>688.226</v>
+        <v>87.311000000000007</v>
       </c>
       <c r="U8">
-        <v>402.25099999999998</v>
+        <v>54.320999999999998</v>
       </c>
       <c r="V8">
-        <v>19.407</v>
+        <v>11.074</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-0.11700000000000001</v>
+        <v>-0.745</v>
       </c>
       <c r="Y8">
-        <v>13.488</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="Z8">
-        <v>-2.415</v>
+        <v>-0.46700000000000003</v>
       </c>
       <c r="AA8">
-        <v>6.1639999999999997</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>7.6749999999999998</v>
+        <v>-2.254</v>
       </c>
       <c r="D9">
-        <v>905.08900000000006</v>
+        <v>45.188000000000002</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>242.45099999999999</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>2225.018</v>
+        <v>107.075</v>
       </c>
       <c r="H9">
-        <v>3808.8330000000001</v>
+        <v>130.53</v>
       </c>
       <c r="I9">
-        <v>91.510999999999996</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J9">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1467,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.58699999999999997</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1598.223</v>
+        <v>40.426000000000002</v>
       </c>
       <c r="O9">
-        <v>3091.9929999999999</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="P9">
-        <v>416.18700000000001</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="Q9">
-        <v>-31.952999999999999</v>
+        <v>5.4930000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="T9">
-        <v>716.84</v>
+        <v>89.355999999999995</v>
       </c>
       <c r="U9">
-        <v>370.298</v>
+        <v>59.814</v>
       </c>
       <c r="V9">
-        <v>-2.9249999999999998</v>
+        <v>14.419</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-0.158</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="Y9">
-        <v>12.752000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Z9">
-        <v>-12.912000000000001</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="AA9">
-        <v>7.6749999999999998</v>
+        <v>-2.254</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>7.8970000000000002</v>
+        <v>-2.375</v>
       </c>
       <c r="D10">
-        <v>945.23900000000003</v>
+        <v>55.668999999999997</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>249.37200000000001</v>
+        <v>18.946000000000002</v>
       </c>
       <c r="G10">
-        <v>2240.7910000000002</v>
+        <v>113.194</v>
       </c>
       <c r="H10">
-        <v>3967.89</v>
+        <v>135.62899999999999</v>
       </c>
       <c r="I10">
-        <v>86.468000000000004</v>
+        <v>22.218</v>
       </c>
       <c r="J10">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1550,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.40699999999999997</v>
       </c>
       <c r="N10">
-        <v>1675.9259999999999</v>
+        <v>43.91</v>
       </c>
       <c r="O10">
-        <v>3223.2170000000001</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="P10">
-        <v>400</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="Q10">
-        <v>-80.007000000000005</v>
+        <v>6.2140000000000004</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="S10">
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>744.673</v>
+        <v>91.063999999999993</v>
       </c>
       <c r="U10">
-        <v>290.291</v>
+        <v>66.028000000000006</v>
       </c>
       <c r="V10">
-        <v>-14.005000000000001</v>
+        <v>12.827</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1.8320000000000001</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="Z10">
-        <v>-30.818999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="AA10">
-        <v>7.8970000000000002</v>
+        <v>-2.375</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>2.6890000000000001</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="D11">
-        <v>1023.961</v>
+        <v>63.186999999999998</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>287.00900000000001</v>
+        <v>20.518000000000001</v>
       </c>
       <c r="G11">
-        <v>2557.1</v>
+        <v>119.58499999999999</v>
       </c>
       <c r="H11">
-        <v>4363.2889999999998</v>
+        <v>150.065</v>
       </c>
       <c r="I11">
-        <v>102.822</v>
+        <v>28.009</v>
       </c>
       <c r="J11">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1633,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-219.76499999999999</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="N11">
-        <v>1688.7139999999999</v>
+        <v>51.531999999999996</v>
       </c>
       <c r="O11">
-        <v>3550.37</v>
+        <v>52.058999999999997</v>
       </c>
       <c r="P11">
-        <v>777.6</v>
+        <v>1.091</v>
       </c>
       <c r="Q11">
-        <v>127.76</v>
+        <v>5.2009999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>812.91899999999998</v>
+        <v>98.006</v>
       </c>
       <c r="U11">
-        <v>418.05099999999999</v>
+        <v>71.228999999999999</v>
       </c>
       <c r="V11">
-        <v>-12.25</v>
+        <v>23.62</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>321.58199999999999</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="Y11">
-        <v>52.366</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="Z11">
-        <v>-149.97499999999999</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="AA11">
-        <v>2.6890000000000001</v>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>29.471</v>
+        <v>3.3029999999999999</v>
       </c>
       <c r="D12">
-        <v>1069.3720000000001</v>
+        <v>72.201999999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>308.69799999999998</v>
+        <v>24.884</v>
       </c>
       <c r="G12">
-        <v>2570.3220000000001</v>
+        <v>127.602</v>
       </c>
       <c r="H12">
-        <v>4480.7510000000002</v>
+        <v>158.864</v>
       </c>
       <c r="I12">
-        <v>103.441</v>
+        <v>28.459</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1716,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-0.255</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="N12">
-        <v>1670.2639999999999</v>
+        <v>53.555</v>
       </c>
       <c r="O12">
-        <v>3375.1289999999999</v>
+        <v>54.003</v>
       </c>
       <c r="P12">
-        <v>563.4</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="Q12">
-        <v>-47.372999999999998</v>
+        <v>7.9409999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1105.6220000000001</v>
+        <v>104.861</v>
       </c>
       <c r="U12">
-        <v>370.678</v>
+        <v>79.17</v>
       </c>
       <c r="V12">
-        <v>33.942999999999998</v>
+        <v>21.986000000000001</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>48.959000000000003</v>
+        <v>0.437</v>
       </c>
       <c r="Y12">
-        <v>63.4</v>
+        <v>0.185</v>
       </c>
       <c r="Z12">
-        <v>-106.661</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="AA12">
-        <v>29.471</v>
+        <v>3.3029999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>31.821999999999999</v>
+        <v>2.2709999999999999</v>
       </c>
       <c r="D13">
-        <v>1105.999</v>
+        <v>81.185000000000002</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>307.09899999999999</v>
+        <v>26.911999999999999</v>
       </c>
       <c r="G13">
-        <v>2849.2779999999998</v>
+        <v>138.946</v>
       </c>
       <c r="H13">
-        <v>4901.3249999999998</v>
+        <v>176.012</v>
       </c>
       <c r="I13">
-        <v>100.899</v>
+        <v>32.654000000000003</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1799,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.25800000000000001</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1935.136</v>
+        <v>63.018999999999998</v>
       </c>
       <c r="O13">
-        <v>3696.9549999999999</v>
+        <v>63.304000000000002</v>
       </c>
       <c r="P13">
-        <v>512.79999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="Q13">
-        <v>68.378</v>
+        <v>10.724</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="T13">
-        <v>1204.3699999999999</v>
+        <v>112.708</v>
       </c>
       <c r="U13">
-        <v>439.05599999999998</v>
+        <v>89.894000000000005</v>
       </c>
       <c r="V13">
-        <v>34.692999999999998</v>
+        <v>31.359000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>45.795000000000002</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="Y13">
-        <v>12.8</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z13">
-        <v>13.959</v>
+        <v>-0.58199999999999996</v>
       </c>
       <c r="AA13">
-        <v>31.821999999999999</v>
+        <v>2.2709999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>48.420999999999999</v>
+        <v>-5.79</v>
       </c>
       <c r="D14">
-        <v>1175.23</v>
+        <v>100.37</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>354.553</v>
+        <v>32.442</v>
       </c>
       <c r="G14">
-        <v>3058.7629999999999</v>
+        <v>148.958</v>
       </c>
       <c r="H14">
-        <v>5412.5630000000001</v>
+        <v>191.233</v>
       </c>
       <c r="I14">
-        <v>108.435</v>
+        <v>43.183</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1882,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.111</v>
       </c>
       <c r="N14">
-        <v>2154.203</v>
+        <v>77.5</v>
       </c>
       <c r="O14">
-        <v>4079.002</v>
+        <v>77.707999999999998</v>
       </c>
       <c r="P14">
-        <v>500</v>
+        <v>0.36</v>
       </c>
       <c r="Q14">
-        <v>165.90899999999999</v>
+        <v>10.294</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="S14">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1333.5609999999999</v>
+        <v>113.52500000000001</v>
       </c>
       <c r="U14">
-        <v>604.96500000000003</v>
+        <v>100.188</v>
       </c>
       <c r="V14">
-        <v>41.445</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>59.927999999999997</v>
+        <v>1.708</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>100.84</v>
+        <v>-0.36399999999999999</v>
       </c>
       <c r="AA14">
-        <v>48.420999999999999</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>53.115000000000002</v>
+        <v>2.891</v>
       </c>
       <c r="D15">
-        <v>1270.0889999999999</v>
+        <v>120.321</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>400.90300000000002</v>
+        <v>35.695</v>
       </c>
       <c r="G15">
-        <v>3586.7840000000001</v>
+        <v>158.721</v>
       </c>
       <c r="H15">
-        <v>6048.1059999999998</v>
+        <v>204.19300000000001</v>
       </c>
       <c r="I15">
-        <v>133.88300000000001</v>
+        <v>42.552</v>
       </c>
       <c r="J15">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1965,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.26700000000000002</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="N15">
-        <v>2263.6529999999998</v>
+        <v>81.908000000000001</v>
       </c>
       <c r="O15">
-        <v>4569.7479999999996</v>
+        <v>82.287000000000006</v>
       </c>
       <c r="P15">
-        <v>911.3</v>
+        <v>0.253</v>
       </c>
       <c r="Q15">
-        <v>552.48500000000001</v>
+        <v>53.256</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1478.3579999999999</v>
+        <v>121.90600000000001</v>
       </c>
       <c r="U15">
-        <v>1157.45</v>
+        <v>153.44399999999999</v>
       </c>
       <c r="V15">
-        <v>36.359000000000002</v>
+        <v>31.966000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>458.18599999999998</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="Y15">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>85.591999999999999</v>
+        <v>44.790999999999997</v>
       </c>
       <c r="AA15">
-        <v>53.115000000000002</v>
+        <v>2.891</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>71.018000000000001</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="D16">
-        <v>1340.4069999999999</v>
+        <v>141.64400000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>425.55900000000003</v>
+        <v>54.713000000000001</v>
       </c>
       <c r="G16">
-        <v>3668.38</v>
+        <v>176.56899999999999</v>
       </c>
       <c r="H16">
-        <v>6325.8220000000001</v>
+        <v>235.637</v>
       </c>
       <c r="I16">
-        <v>137.226</v>
+        <v>47.667999999999999</v>
       </c>
       <c r="J16">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2048,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.27100000000000002</v>
+        <v>-0.1</v>
       </c>
       <c r="N16">
-        <v>2335.1239999999998</v>
+        <v>90.33</v>
       </c>
       <c r="O16">
-        <v>4716.1170000000002</v>
+        <v>90.816999999999993</v>
       </c>
       <c r="P16">
-        <v>910.9</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="Q16">
-        <v>56.793999999999997</v>
+        <v>14.37</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1609.7049999999999</v>
+        <v>144.82</v>
       </c>
       <c r="U16">
-        <v>1214.2439999999999</v>
+        <v>167.81399999999999</v>
       </c>
       <c r="V16">
-        <v>56.024000000000001</v>
+        <v>49.268000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>28.472999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="Y16">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>10.768000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>71.018000000000001</v>
+        <v>18.925000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>59.295000000000002</v>
+        <v>5.569</v>
       </c>
       <c r="D17">
-        <v>1409.432</v>
+        <v>138.27600000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>455.03800000000001</v>
+        <v>46.048999999999999</v>
       </c>
       <c r="G17">
-        <v>3823.482</v>
+        <v>187.346</v>
       </c>
       <c r="H17">
-        <v>6778.3289999999997</v>
+        <v>251.79300000000001</v>
       </c>
       <c r="I17">
-        <v>150.374</v>
+        <v>49.774999999999999</v>
       </c>
       <c r="J17">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2131,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2548.6550000000002</v>
+        <v>94.91</v>
       </c>
       <c r="O17">
-        <v>5053.4549999999999</v>
+        <v>95.51</v>
       </c>
       <c r="P17">
-        <v>910.1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q17">
-        <v>-31.027000000000001</v>
+        <v>6.6470000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="T17">
-        <v>1724.874</v>
+        <v>156.28299999999999</v>
       </c>
       <c r="U17">
-        <v>1183.2170000000001</v>
+        <v>174.46100000000001</v>
       </c>
       <c r="V17">
-        <v>-37.439</v>
+        <v>32.536999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>30.661999999999999</v>
+        <v>1.431</v>
       </c>
       <c r="Y17">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>15.81</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>59.295000000000002</v>
+        <v>5.569</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>83.370999999999995</v>
+        <v>-8.8140000000000001</v>
       </c>
       <c r="D18">
-        <v>1484.7280000000001</v>
+        <v>152.446</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>470.39600000000002</v>
+        <v>41.325000000000003</v>
       </c>
       <c r="G18">
-        <v>3927.0529999999999</v>
+        <v>174.036</v>
       </c>
       <c r="H18">
-        <v>7042.5</v>
+        <v>253.58199999999999</v>
       </c>
       <c r="I18">
-        <v>201.58099999999999</v>
+        <v>52.631999999999998</v>
       </c>
       <c r="J18">
-        <v>885.84900000000005</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2214,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="N18">
-        <v>2663.154</v>
+        <v>100.776</v>
       </c>
       <c r="O18">
-        <v>5184.7920000000004</v>
+        <v>101.46899999999999</v>
       </c>
       <c r="P18">
-        <v>885.84900000000005</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-69.608999999999995</v>
+        <v>-8.6389999999999993</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="S18">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1857.7080000000001</v>
+        <v>152.113</v>
       </c>
       <c r="U18">
-        <v>1113.6079999999999</v>
+        <v>165.822</v>
       </c>
       <c r="V18">
-        <v>-38.460999999999999</v>
+        <v>29.443000000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>24.390999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-11.853999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>83.370999999999995</v>
+        <v>-8.8140000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>23.696000000000002</v>
+        <v>5.6840000000000002</v>
       </c>
       <c r="D19">
-        <v>1573.1289999999999</v>
+        <v>164.02699999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>526.72799999999995</v>
+        <v>46.177999999999997</v>
       </c>
       <c r="G19">
-        <v>5539.0559999999996</v>
+        <v>182.405</v>
       </c>
       <c r="H19">
-        <v>9240.6260000000002</v>
+        <v>268.72800000000001</v>
       </c>
       <c r="I19">
-        <v>190.56700000000001</v>
+        <v>56.210999999999999</v>
       </c>
       <c r="J19">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2300,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3008.8490000000002</v>
+        <v>103.41</v>
       </c>
       <c r="O19">
-        <v>7331.4120000000003</v>
+        <v>104.19499999999999</v>
       </c>
       <c r="P19">
-        <v>2409</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1341.1690000000001</v>
+        <v>5.15</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1909.2139999999999</v>
+        <v>164.53299999999999</v>
       </c>
       <c r="U19">
-        <v>2454.777</v>
+        <v>170.97200000000001</v>
       </c>
       <c r="V19">
-        <v>-127.38200000000001</v>
+        <v>36.494</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1522.434</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="Y19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-7.1050000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>23.696000000000002</v>
+        <v>5.6840000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>26.335000000000001</v>
+        <v>6.9459999999999997</v>
       </c>
       <c r="D20">
-        <v>1644.694</v>
+        <v>172.74</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>522.94200000000001</v>
+        <v>57.091000000000001</v>
       </c>
       <c r="G20">
-        <v>5600.51</v>
+        <v>191.91800000000001</v>
       </c>
       <c r="H20">
-        <v>9654.8610000000008</v>
+        <v>278.30200000000002</v>
       </c>
       <c r="I20">
-        <v>211.72900000000001</v>
+        <v>43.951000000000001</v>
       </c>
       <c r="J20">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2383,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3220.069</v>
+        <v>98.754999999999995</v>
       </c>
       <c r="O20">
-        <v>7622.7860000000001</v>
+        <v>99.63</v>
       </c>
       <c r="P20">
-        <v>2408.1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-160.905</v>
+        <v>10.914</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2032.075</v>
+        <v>178.672</v>
       </c>
       <c r="U20">
-        <v>2293.8719999999998</v>
+        <v>181.886</v>
       </c>
       <c r="V20">
-        <v>-181.34299999999999</v>
+        <v>37.155000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>62.546999999999997</v>
+        <v>3.9</v>
       </c>
       <c r="Y20">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.36699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>26.335000000000001</v>
+        <v>6.9459999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>29.431999999999999</v>
+        <v>38.210999999999999</v>
       </c>
       <c r="D21">
-        <v>1738.355</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>564.39700000000005</v>
+        <v>71.843999999999994</v>
       </c>
       <c r="G21">
-        <v>5569.7129999999997</v>
+        <v>243.691</v>
       </c>
       <c r="H21">
-        <v>9916.2669999999998</v>
+        <v>364.68099999999998</v>
       </c>
       <c r="I21">
-        <v>209.36500000000001</v>
+        <v>63.491</v>
       </c>
       <c r="J21">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2466,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3341.4180000000001</v>
+        <v>137.58699999999999</v>
       </c>
       <c r="O21">
-        <v>7748.9489999999996</v>
+        <v>138.429</v>
       </c>
       <c r="P21">
-        <v>2421.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-178.435</v>
+        <v>30.37</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="T21">
-        <v>2167.3180000000002</v>
+        <v>226.25200000000001</v>
       </c>
       <c r="U21">
-        <v>2115.4369999999999</v>
+        <v>212.256</v>
       </c>
       <c r="V21">
-        <v>-195.96899999999999</v>
+        <v>59.067</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>72.754000000000005</v>
+        <v>5.8150000000000004</v>
       </c>
       <c r="Y21">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>8.5679999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>29.431999999999999</v>
+        <v>38.210999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>43.177999999999997</v>
+        <v>4.4039999999999999</v>
       </c>
       <c r="D22">
-        <v>1823.3330000000001</v>
+        <v>224.126</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>573.96799999999996</v>
+        <v>75.861000000000004</v>
       </c>
       <c r="G22">
-        <v>5431.84</v>
+        <v>255.32</v>
       </c>
       <c r="H22">
-        <v>10202.870999999999</v>
+        <v>392.94499999999999</v>
       </c>
       <c r="I22">
-        <v>253.49100000000001</v>
+        <v>77.995999999999995</v>
       </c>
       <c r="J22">
-        <v>2371.3620000000001</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2549,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3529.6239999999998</v>
+        <v>154.233</v>
       </c>
       <c r="O22">
-        <v>7979.4449999999997</v>
+        <v>155.14500000000001</v>
       </c>
       <c r="P22">
-        <v>2371.3620000000001</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-306.10700000000003</v>
+        <v>15.509</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="S22">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2223.4259999999999</v>
+        <v>237.8</v>
       </c>
       <c r="U22">
-        <v>1809.33</v>
+        <v>227.76499999999999</v>
       </c>
       <c r="V22">
-        <v>-244.745</v>
+        <v>45.99</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-17.457999999999998</v>
+        <v>3.8340000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-9.17</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>43.177999999999997</v>
+        <v>4.4039999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>27.658000000000001</v>
+        <v>17.036999999999999</v>
       </c>
       <c r="D23">
-        <v>1957.7360000000001</v>
+        <v>239.351</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>588.19600000000003</v>
+        <v>88.772000000000006</v>
       </c>
       <c r="G23">
-        <v>5543.8360000000002</v>
+        <v>370.09</v>
       </c>
       <c r="H23">
-        <v>11262.273999999999</v>
+        <v>512.71199999999999</v>
       </c>
       <c r="I23">
-        <v>231.91399999999999</v>
+        <v>70.784999999999997</v>
       </c>
       <c r="J23">
-        <v>2372.2179999999998</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2632,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3933.6320000000001</v>
+        <v>145.327</v>
       </c>
       <c r="O23">
-        <v>8945.0409999999993</v>
+        <v>146.358</v>
       </c>
       <c r="P23">
-        <v>2372.2179999999998</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-204.08600000000001</v>
+        <v>113.937</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2317.2330000000002</v>
+        <v>366.35399999999998</v>
       </c>
       <c r="U23">
-        <v>1605.2439999999999</v>
+        <v>341.702</v>
       </c>
       <c r="V23">
-        <v>-228.59</v>
+        <v>53.298999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>14.907</v>
+        <v>108.43</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>36.250999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>27.658000000000001</v>
+        <v>17.036999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>40.755000000000003</v>
+        <v>12.781000000000001</v>
       </c>
       <c r="D24">
-        <v>2105.2040000000002</v>
+        <v>255.95</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>632.10599999999999</v>
+        <v>97.156999999999996</v>
       </c>
       <c r="G24">
-        <v>5386.9179999999997</v>
+        <v>395.09399999999999</v>
       </c>
       <c r="H24">
-        <v>11593.507</v>
+        <v>550.59400000000005</v>
       </c>
       <c r="I24">
-        <v>240.458</v>
+        <v>81.968000000000004</v>
       </c>
       <c r="J24">
-        <v>2373.085</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2715,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4051.837</v>
+        <v>162.482</v>
       </c>
       <c r="O24">
-        <v>9177.6730000000007</v>
+        <v>163.59100000000001</v>
       </c>
       <c r="P24">
-        <v>2373.085</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-214.31899999999999</v>
+        <v>27.039000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2415.8339999999998</v>
+        <v>387.00299999999999</v>
       </c>
       <c r="U24">
-        <v>1390.925</v>
+        <v>368.74099999999999</v>
       </c>
       <c r="V24">
-        <v>-226.29300000000001</v>
+        <v>61.462000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>17.611999999999998</v>
+        <v>4.6989999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>24.934999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>40.755000000000003</v>
+        <v>12.781000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>51.517000000000003</v>
+        <v>14.86</v>
       </c>
       <c r="D25">
-        <v>2290.1880000000001</v>
+        <v>277.233</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>757.34400000000005</v>
+        <v>107.88500000000001</v>
       </c>
       <c r="G25">
-        <v>5193.893</v>
+        <v>428.41800000000001</v>
       </c>
       <c r="H25">
-        <v>12347.338</v>
+        <v>608.779</v>
       </c>
       <c r="I25">
-        <v>285.75299999999999</v>
+        <v>93.864000000000004</v>
       </c>
       <c r="J25">
-        <v>2373.9659999999999</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2798,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4411.4049999999997</v>
+        <v>193.447</v>
       </c>
       <c r="O25">
-        <v>9818.3719999999994</v>
+        <v>194.56800000000001</v>
       </c>
       <c r="P25">
-        <v>2373.9659999999999</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-421.767</v>
+        <v>31.689</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="T25">
-        <v>2528.9659999999999</v>
+        <v>414.21100000000001</v>
       </c>
       <c r="U25">
-        <v>969.15800000000002</v>
+        <v>400.43</v>
       </c>
       <c r="V25">
-        <v>-461.94099999999997</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>16.638999999999999</v>
+        <v>9.218</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>68.465999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>51.517000000000003</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>66.748000000000005</v>
+        <v>9.8640000000000008</v>
       </c>
       <c r="D26">
-        <v>2477.5410000000002</v>
+        <v>305.32</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>823.12199999999996</v>
+        <v>110.348</v>
       </c>
       <c r="G26">
-        <v>5720.2910000000002</v>
+        <v>426.27300000000002</v>
       </c>
       <c r="H26">
-        <v>13586.61</v>
+        <v>625.11</v>
       </c>
       <c r="I26">
-        <v>312.84199999999998</v>
+        <v>93.959000000000003</v>
       </c>
       <c r="J26">
-        <v>3364.3110000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2881,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4586.6570000000002</v>
+        <v>191.721</v>
       </c>
       <c r="O26">
-        <v>10906.81</v>
+        <v>192.90600000000001</v>
       </c>
       <c r="P26">
-        <v>3364.3110000000001</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>498.41800000000001</v>
+        <v>-181.97200000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="S26">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2679.8</v>
+        <v>432.20400000000001</v>
       </c>
       <c r="U26">
-        <v>1467.576</v>
+        <v>218.458</v>
       </c>
       <c r="V26">
-        <v>-557.16</v>
+        <v>63.029000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1042.472</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>105.884</v>
+        <v>-168.81200000000001</v>
       </c>
       <c r="AA26">
-        <v>66.748000000000005</v>
+        <v>9.8640000000000008</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>178.22200000000001</v>
+        <v>25.494</v>
       </c>
       <c r="D27">
-        <v>2636.6350000000002</v>
+        <v>303.69299999999998</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>979.61099999999999</v>
+        <v>107</v>
       </c>
       <c r="G27">
-        <v>5660.33</v>
+        <v>410.57</v>
       </c>
       <c r="H27">
-        <v>14359.096</v>
+        <v>612.29999999999995</v>
       </c>
       <c r="I27">
-        <v>294.83100000000002</v>
+        <v>70.757000000000005</v>
       </c>
       <c r="J27">
-        <v>3365.431</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2961,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="N27">
-        <v>4911.2290000000003</v>
+        <v>167.03299999999999</v>
       </c>
       <c r="O27">
-        <v>11385.413</v>
+        <v>168.21899999999999</v>
       </c>
       <c r="P27">
-        <v>3383.3310000000001</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-389.75200000000001</v>
+        <v>-34.276000000000003</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2973.683</v>
+        <v>444.08100000000002</v>
       </c>
       <c r="U27">
-        <v>1077.8240000000001</v>
+        <v>184.18199999999999</v>
       </c>
       <c r="V27">
-        <v>-343.85599999999999</v>
+        <v>65.233999999999995</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>24.239000000000001</v>
+        <v>-15.613</v>
       </c>
       <c r="Y27">
-        <v>17.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>3.0739999999999998</v>
+        <v>-25.213000000000001</v>
       </c>
       <c r="AA27">
-        <v>178.22200000000001</v>
+        <v>25.494</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>65.599999999999994</v>
+        <v>15.647</v>
       </c>
       <c r="D28">
-        <v>2785.4639999999999</v>
+        <v>293.97199999999998</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>883.15599999999995</v>
+        <v>99.519000000000005</v>
       </c>
       <c r="G28">
-        <v>6700.7849999999999</v>
+        <v>418.31799999999998</v>
       </c>
       <c r="H28">
-        <v>16517.223000000002</v>
+        <v>624.197</v>
       </c>
       <c r="I28">
-        <v>273.39800000000002</v>
+        <v>89.494</v>
       </c>
       <c r="J28">
-        <v>4836.5020000000004</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3044,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="N28">
-        <v>5122.9449999999997</v>
+        <v>187.83199999999999</v>
       </c>
       <c r="O28">
-        <v>13404.723</v>
+        <v>189.75899999999999</v>
       </c>
       <c r="P28">
-        <v>4836.5020000000004</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>840.95299999999997</v>
+        <v>-4.3780000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3112.5</v>
+        <v>434.43799999999999</v>
       </c>
       <c r="U28">
-        <v>1918.777</v>
+        <v>179.804</v>
       </c>
       <c r="V28">
-        <v>-534.52800000000002</v>
+        <v>77.662999999999997</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>1420.386</v>
+        <v>-29.844000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>17.486999999999998</v>
+        <v>-10.708</v>
       </c>
       <c r="AA28">
-        <v>65.599999999999994</v>
+        <v>15.647</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>129.59</v>
+        <v>15.691000000000001</v>
       </c>
       <c r="D29">
-        <v>2984.8589999999999</v>
+        <v>302.35500000000002</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>991.87900000000002</v>
+        <v>102.30500000000001</v>
       </c>
       <c r="G29">
-        <v>6385.348</v>
+        <v>432.423</v>
       </c>
       <c r="H29">
-        <v>16951.54</v>
+        <v>678.99800000000005</v>
       </c>
       <c r="I29">
-        <v>301.44299999999998</v>
+        <v>99.950999999999993</v>
       </c>
       <c r="J29">
-        <v>4888.7830000000004</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3130,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>5310.6769999999997</v>
+        <v>208.905</v>
       </c>
       <c r="O29">
-        <v>13624.179</v>
+        <v>249.18600000000001</v>
       </c>
       <c r="P29">
-        <v>4888.7830000000004</v>
+        <v>36.475000000000001</v>
       </c>
       <c r="Q29">
-        <v>-172.30799999999999</v>
+        <v>-2.3650000000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="T29">
-        <v>3327.3609999999999</v>
+        <v>429.81200000000001</v>
       </c>
       <c r="U29">
-        <v>1746.4690000000001</v>
+        <v>177.43899999999999</v>
       </c>
       <c r="V29">
-        <v>-419.60700000000003</v>
+        <v>71.403000000000006</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>34.421999999999997</v>
+        <v>-23.681000000000001</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>35.652000000000001</v>
       </c>
       <c r="Z29">
-        <v>247.47900000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AA29">
-        <v>129.59</v>
+        <v>15.691000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>185.517</v>
+        <v>13.343999999999999</v>
       </c>
       <c r="D30">
-        <v>3285.7550000000001</v>
+        <v>326.18299999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>805.06700000000001</v>
+        <v>103.378</v>
       </c>
       <c r="G30">
-        <v>7669.9740000000002</v>
+        <v>326.16199999999998</v>
       </c>
       <c r="H30">
-        <v>19012.741999999998</v>
+        <v>585.678</v>
       </c>
       <c r="I30">
-        <v>359.55500000000001</v>
+        <v>114.568</v>
       </c>
       <c r="J30">
-        <v>6499.4319999999998</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3210,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-0.122</v>
       </c>
       <c r="N30">
-        <v>5466.3119999999999</v>
+        <v>226.964</v>
       </c>
       <c r="O30">
-        <v>15430.786</v>
+        <v>230.245</v>
       </c>
       <c r="P30">
-        <v>6499.4319999999998</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1076.326</v>
+        <v>-8.4499999999999993</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="S30">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3581.9560000000001</v>
+        <v>355.43299999999999</v>
       </c>
       <c r="U30">
-        <v>2822.7950000000001</v>
+        <v>168.989</v>
       </c>
       <c r="V30">
-        <v>-487.95699999999999</v>
+        <v>64.061999999999998</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1597.943</v>
+        <v>-90.644999999999996</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>77.364999999999995</v>
       </c>
       <c r="AA30">
-        <v>185.517</v>
+        <v>13.343999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>290.12400000000002</v>
+        <v>26.579000000000001</v>
       </c>
       <c r="D31">
-        <v>3700.8560000000002</v>
+        <v>337.61399999999998</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1400.277</v>
+        <v>107.527</v>
       </c>
       <c r="G31">
-        <v>7817.576</v>
+        <v>359.154</v>
       </c>
       <c r="H31">
-        <v>20152.796999999999</v>
+        <v>646.02300000000002</v>
       </c>
       <c r="I31">
-        <v>436.18299999999999</v>
+        <v>109</v>
       </c>
       <c r="J31">
-        <v>6542.3729999999996</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3293,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="N31">
-        <v>6005.5870000000004</v>
+        <v>205.37700000000001</v>
       </c>
       <c r="O31">
-        <v>16132.066999999999</v>
+        <v>256.56099999999998</v>
       </c>
       <c r="P31">
-        <v>6542.3729999999996</v>
+        <v>39.610999999999997</v>
       </c>
       <c r="Q31">
-        <v>-223.31800000000001</v>
+        <v>-24.7</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4020.73</v>
+        <v>389.46199999999999</v>
       </c>
       <c r="U31">
-        <v>2593.6660000000002</v>
+        <v>144.28899999999999</v>
       </c>
       <c r="V31">
-        <v>-236.75700000000001</v>
+        <v>67.38</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>56.014000000000003</v>
+        <v>6.8479999999999999</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>38.582000000000001</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-44.255000000000003</v>
       </c>
       <c r="AA31">
-        <v>290.12400000000002</v>
+        <v>26.579000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>384.34899999999999</v>
+        <v>20.370999999999999</v>
       </c>
       <c r="D32">
-        <v>3907.27</v>
+        <v>341.26900000000001</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1504.8389999999999</v>
+        <v>116.773</v>
       </c>
       <c r="G32">
-        <v>9346.8889999999992</v>
+        <v>301.375</v>
       </c>
       <c r="H32">
-        <v>22663.537</v>
+        <v>582.99900000000002</v>
       </c>
       <c r="I32">
-        <v>448.21899999999999</v>
+        <v>109.277</v>
       </c>
       <c r="J32">
-        <v>8342.0669999999991</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3376,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="N32">
-        <v>6079.6409999999996</v>
+        <v>207.88900000000001</v>
       </c>
       <c r="O32">
-        <v>18166.937000000002</v>
+        <v>258.166</v>
       </c>
       <c r="P32">
-        <v>8342.0669999999991</v>
+        <v>39.377000000000002</v>
       </c>
       <c r="Q32">
-        <v>1314.5170000000001</v>
+        <v>-32.765000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4496.6000000000004</v>
+        <v>324.83300000000003</v>
       </c>
       <c r="U32">
-        <v>3906.357</v>
+        <v>111.524</v>
       </c>
       <c r="V32">
-        <v>-518.23900000000003</v>
+        <v>60.494999999999997</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1909.412</v>
+        <v>-86.593000000000004</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>38.286999999999999</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>27.658999999999999</v>
       </c>
       <c r="AA32">
-        <v>384.34899999999999</v>
+        <v>20.370999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>402.83499999999998</v>
+        <v>22.731999999999999</v>
       </c>
       <c r="D33">
-        <v>3999.3739999999998</v>
+        <v>359.59500000000003</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1468.2460000000001</v>
+        <v>126.749</v>
       </c>
       <c r="G33">
-        <v>8729.9809999999998</v>
+        <v>358.92500000000001</v>
       </c>
       <c r="H33">
-        <v>23366.228999999999</v>
+        <v>615.42399999999998</v>
       </c>
       <c r="I33">
-        <v>441.42700000000002</v>
+        <v>100.34399999999999</v>
       </c>
       <c r="J33">
-        <v>8336.5859999999993</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3462,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>6298.24</v>
+        <v>216.017</v>
       </c>
       <c r="O33">
-        <v>18356.576000000001</v>
+        <v>268.26900000000001</v>
       </c>
       <c r="P33">
-        <v>8336.5859999999993</v>
+        <v>39.14</v>
       </c>
       <c r="Q33">
-        <v>-835.43</v>
+        <v>28.356999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="T33">
-        <v>5009.6530000000002</v>
+        <v>347.15499999999997</v>
       </c>
       <c r="U33">
-        <v>3067.5340000000001</v>
+        <v>139.881</v>
       </c>
       <c r="V33">
-        <v>-690.41099999999994</v>
+        <v>92.1</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>29.236999999999998</v>
+        <v>-6.2450000000000001</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>37.988</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-16.395</v>
       </c>
       <c r="AA33">
-        <v>402.83499999999998</v>
+        <v>22.731999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>133.934</v>
+        <v>22.363</v>
       </c>
       <c r="D34">
-        <v>4186.8410000000003</v>
+        <v>394.09800000000001</v>
       </c>
       <c r="E34">
-        <v>362.71199999999999</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1453.441</v>
+        <v>134.83000000000001</v>
       </c>
       <c r="G34">
-        <v>9694.1350000000002</v>
+        <v>364.88</v>
       </c>
       <c r="H34">
-        <v>25974.400000000001</v>
+        <v>628.678</v>
       </c>
       <c r="I34">
-        <v>562.98500000000001</v>
+        <v>112.767</v>
       </c>
       <c r="J34">
-        <v>10360.058000000001</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3542,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="N34">
-        <v>6487.32</v>
+        <v>226.71299999999999</v>
       </c>
       <c r="O34">
-        <v>20735.634999999998</v>
+        <v>282.36599999999999</v>
       </c>
       <c r="P34">
-        <v>10360.058000000001</v>
+        <v>38.871000000000002</v>
       </c>
       <c r="Q34">
-        <v>733.47699999999998</v>
+        <v>-24.75</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="S34">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5238.7650000000003</v>
+        <v>346.31200000000001</v>
       </c>
       <c r="U34">
-        <v>3794.4830000000002</v>
+        <v>115.131</v>
       </c>
       <c r="V34">
-        <v>-1235.0719999999999</v>
+        <v>65.632999999999996</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>2053.864</v>
+        <v>-25.715</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>37.655999999999999</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-14.121</v>
       </c>
       <c r="AA34">
-        <v>133.934</v>
+        <v>22.363</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>344.05200000000002</v>
+        <v>32.442999999999998</v>
       </c>
       <c r="D35">
-        <v>4520.9920000000002</v>
+        <v>408.50900000000001</v>
       </c>
       <c r="E35">
-        <v>432.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1650.3779999999999</v>
+        <v>139.26599999999999</v>
       </c>
       <c r="G35">
-        <v>4168.9070000000002</v>
+        <v>342.56400000000002</v>
       </c>
       <c r="H35">
-        <v>27218.632000000001</v>
+        <v>591.99300000000005</v>
       </c>
       <c r="I35">
-        <v>439.49599999999998</v>
+        <v>101.634</v>
       </c>
       <c r="J35">
-        <v>10305.022999999999</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3625,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="N35">
-        <v>6857.8069999999998</v>
+        <v>211.18600000000001</v>
       </c>
       <c r="O35">
-        <v>21515.574000000001</v>
+        <v>267.62200000000001</v>
       </c>
       <c r="P35">
-        <v>11192.545</v>
+        <v>38.576000000000001</v>
       </c>
       <c r="Q35">
-        <v>-441.94400000000002</v>
+        <v>-27.66</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5703.058</v>
+        <v>324.37099999999998</v>
       </c>
       <c r="U35">
-        <v>3348.5569999999998</v>
+        <v>87.471000000000004</v>
       </c>
       <c r="V35">
-        <v>-379.79899999999998</v>
+        <v>75.302000000000007</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>22.972000000000001</v>
+        <v>-59.213000000000001</v>
       </c>
       <c r="Y35">
-        <v>765.024</v>
+        <v>37.301000000000002</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>5.2380000000000004</v>
       </c>
       <c r="AA35">
-        <v>344.05200000000002</v>
+        <v>32.442999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>270.64999999999998</v>
+        <v>30.140999999999998</v>
       </c>
       <c r="D36">
-        <v>4923.116</v>
+        <v>423.12</v>
       </c>
       <c r="E36">
-        <v>492.03399999999999</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1917.4590000000001</v>
+        <v>147.846</v>
       </c>
       <c r="G36">
-        <v>5877.1570000000002</v>
+        <v>234.96199999999999</v>
       </c>
       <c r="H36">
-        <v>30171.339</v>
+        <v>492.13099999999997</v>
       </c>
       <c r="I36">
-        <v>442.19400000000002</v>
+        <v>93.450999999999993</v>
       </c>
       <c r="J36">
-        <v>12594.135</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3708,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="N36">
-        <v>6933.9840000000004</v>
+        <v>203.52199999999999</v>
       </c>
       <c r="O36">
-        <v>24065.791000000001</v>
+        <v>259.92899999999997</v>
       </c>
       <c r="P36">
-        <v>13678.117</v>
+        <v>38.281999999999996</v>
       </c>
       <c r="Q36">
-        <v>1658.1079999999999</v>
+        <v>-31.754000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6105.5479999999998</v>
+        <v>232.202</v>
       </c>
       <c r="U36">
-        <v>5004.2470000000003</v>
+        <v>55.716999999999999</v>
       </c>
       <c r="V36">
-        <v>-543.75400000000002</v>
+        <v>78.311000000000007</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2246.9</v>
+        <v>-125.655</v>
       </c>
       <c r="Y36">
-        <v>946.32</v>
+        <v>36.94</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>68.378</v>
       </c>
       <c r="AA36">
-        <v>270.64999999999998</v>
+        <v>30.140999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>665.24400000000003</v>
+        <v>30.913</v>
       </c>
       <c r="D37">
-        <v>5244.9049999999997</v>
+        <v>444.54199999999997</v>
       </c>
       <c r="E37">
-        <v>466.16800000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2146.9859999999999</v>
+        <v>169.05600000000001</v>
       </c>
       <c r="G37">
-        <v>5327.7579999999998</v>
+        <v>411.01299999999998</v>
       </c>
       <c r="H37">
-        <v>30941.710999999999</v>
+        <v>679.73400000000004</v>
       </c>
       <c r="I37">
-        <v>444.12900000000002</v>
+        <v>92.542000000000002</v>
       </c>
       <c r="J37">
-        <v>12425.745999999999</v>
+        <v>200</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3794,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>7257.9</v>
+        <v>227.43600000000001</v>
       </c>
       <c r="O37">
-        <v>24080.205999999998</v>
+        <v>480.59100000000001</v>
       </c>
       <c r="P37">
-        <v>13539.365</v>
+        <v>237.982</v>
       </c>
       <c r="Q37">
-        <v>-568.48400000000004</v>
+        <v>78.507000000000005</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="T37">
-        <v>6861.5050000000001</v>
+        <v>199.143</v>
       </c>
       <c r="U37">
-        <v>4435.018</v>
+        <v>134.22399999999999</v>
       </c>
       <c r="V37">
-        <v>-501.79399999999998</v>
+        <v>105.81699999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>11.989000000000001</v>
+        <v>125.94199999999999</v>
       </c>
       <c r="Y37">
-        <v>952.678</v>
+        <v>36.572000000000003</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-77.632999999999996</v>
       </c>
       <c r="AA37">
-        <v>665.24400000000003</v>
+        <v>30.913</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>586.97</v>
+        <v>32.271999999999998</v>
       </c>
       <c r="D38">
-        <v>5467.4340000000002</v>
+        <v>493.66500000000002</v>
       </c>
       <c r="E38">
-        <v>454.399</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2001.4110000000001</v>
+        <v>186.50299999999999</v>
       </c>
       <c r="G38">
-        <v>6178.5039999999999</v>
+        <v>379.53800000000001</v>
       </c>
       <c r="H38">
-        <v>33975.712</v>
+        <v>648.29300000000001</v>
       </c>
       <c r="I38">
-        <v>674.34699999999998</v>
+        <v>102.703</v>
       </c>
       <c r="J38">
-        <v>14759.26</v>
+        <v>200</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3874,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="N38">
-        <v>6855.6959999999999</v>
+        <v>243.447</v>
       </c>
       <c r="O38">
-        <v>26393.555</v>
+        <v>501.55799999999999</v>
       </c>
       <c r="P38">
-        <v>16372.494000000001</v>
+        <v>237.62100000000001</v>
       </c>
       <c r="Q38">
-        <v>584.06500000000005</v>
+        <v>-54.363</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="S38">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>7582.1570000000002</v>
+        <v>146.73500000000001</v>
       </c>
       <c r="U38">
-        <v>5018.4369999999999</v>
+        <v>79.861000000000004</v>
       </c>
       <c r="V38">
-        <v>-1461.9749999999999</v>
+        <v>77.204999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2223.8009999999999</v>
+        <v>-90.742999999999995</v>
       </c>
       <c r="Y38">
-        <v>1422.6120000000001</v>
+        <v>35.704000000000001</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1.212</v>
       </c>
       <c r="AA38">
-        <v>586.97</v>
+        <v>32.271999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>709.06700000000001</v>
+        <v>43.518999999999998</v>
       </c>
       <c r="D39">
-        <v>5767.6909999999998</v>
+        <v>519.81899999999996</v>
       </c>
       <c r="E39">
-        <v>539.91600000000005</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2167.9899999999998</v>
+        <v>204.88499999999999</v>
       </c>
       <c r="G39">
-        <v>6447.7809999999999</v>
+        <v>441.21800000000002</v>
       </c>
       <c r="H39">
-        <v>35059.910000000003</v>
+        <v>693.97199999999998</v>
       </c>
       <c r="I39">
-        <v>545.48800000000006</v>
+        <v>120.03100000000001</v>
       </c>
       <c r="J39">
-        <v>14170.691999999999</v>
+        <v>200</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3957,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="N39">
-        <v>7853.7250000000004</v>
+        <v>258.16699999999997</v>
       </c>
       <c r="O39">
-        <v>26650.616000000002</v>
+        <v>517.33199999999999</v>
       </c>
       <c r="P39">
-        <v>16265.501</v>
+        <v>237.15600000000001</v>
       </c>
       <c r="Q39">
-        <v>134.40100000000001</v>
+        <v>27.466000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8409.2939999999999</v>
+        <v>176.64</v>
       </c>
       <c r="U39">
-        <v>5151.884</v>
+        <v>107.327</v>
       </c>
       <c r="V39">
-        <v>259.91199999999998</v>
+        <v>60.252000000000002</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>43.694000000000003</v>
+        <v>-21.318999999999999</v>
       </c>
       <c r="Y39">
-        <v>1400</v>
+        <v>35.185000000000002</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="AA39">
-        <v>709.06700000000001</v>
+        <v>43.518999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>720.19600000000003</v>
+        <v>37.966999999999999</v>
       </c>
       <c r="D40">
-        <v>6148.2860000000001</v>
+        <v>553.21900000000005</v>
       </c>
       <c r="E40">
-        <v>565.66800000000001</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2504.5790000000002</v>
+        <v>208.75</v>
       </c>
       <c r="G40">
-        <v>8564.1389999999992</v>
+        <v>492.24700000000001</v>
       </c>
       <c r="H40">
-        <v>37175.281000000003</v>
+        <v>770.28300000000002</v>
       </c>
       <c r="I40">
-        <v>446.66800000000001</v>
+        <v>170.12</v>
       </c>
       <c r="J40">
-        <v>15294.998</v>
+        <v>200</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4040,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
       <c r="N40">
-        <v>7626.4179999999997</v>
+        <v>312.10700000000003</v>
       </c>
       <c r="O40">
-        <v>27840.527999999998</v>
+        <v>578.30799999999999</v>
       </c>
       <c r="P40">
-        <v>17708.159</v>
+        <v>236.68600000000001</v>
       </c>
       <c r="Q40">
-        <v>2001.8589999999999</v>
+        <v>5.7809999999999997</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9334.7530000000006</v>
+        <v>191.97499999999999</v>
       </c>
       <c r="U40">
-        <v>7153.2479999999996</v>
+        <v>113.108</v>
       </c>
       <c r="V40">
-        <v>1041.076</v>
+        <v>42.226999999999997</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>1090.9649999999999</v>
+        <v>-30.84</v>
       </c>
       <c r="Y40">
-        <v>1687</v>
+        <v>34.658999999999999</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>28.853999999999999</v>
       </c>
       <c r="AA40">
-        <v>720.19600000000003</v>
+        <v>37.966999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>789.976</v>
+        <v>47.094999999999999</v>
       </c>
       <c r="D41">
-        <v>6435.6369999999997</v>
+        <v>595.92200000000003</v>
       </c>
       <c r="E41">
-        <v>604.78899999999999</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2567.886</v>
+        <v>205.13200000000001</v>
       </c>
       <c r="G41">
-        <v>9826.48</v>
+        <v>637.23099999999999</v>
       </c>
       <c r="H41">
-        <v>38622.542999999998</v>
+        <v>982.06700000000001</v>
       </c>
       <c r="I41">
-        <v>541.298</v>
+        <v>222.82400000000001</v>
       </c>
       <c r="J41">
-        <v>15547.616</v>
+        <v>200</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4126,3365 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>7939.7950000000001</v>
+        <v>388.57900000000001</v>
       </c>
       <c r="O41">
-        <v>28289.22</v>
+        <v>691.90300000000002</v>
       </c>
       <c r="P41">
-        <v>18137.133000000002</v>
+        <v>202.083</v>
       </c>
       <c r="Q41">
-        <v>1242.2339999999999</v>
+        <v>81.391000000000005</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="T41">
-        <v>10333.323</v>
+        <v>290.16399999999999</v>
       </c>
       <c r="U41">
-        <v>8392.3909999999996</v>
+        <v>194.499</v>
       </c>
       <c r="V41">
-        <v>1263.761</v>
+        <v>96.716999999999999</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>68.665000000000006</v>
+        <v>42.856999999999999</v>
       </c>
       <c r="Y41">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-12.898999999999999</v>
       </c>
       <c r="AA41">
-        <v>789.976</v>
+        <v>47.094999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40633</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>60.232999999999997</v>
+      </c>
+      <c r="D42">
+        <v>718.553</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>280.40199999999999</v>
+      </c>
+      <c r="G42">
+        <v>721.60199999999998</v>
+      </c>
+      <c r="H42">
+        <v>1090.1880000000001</v>
+      </c>
+      <c r="I42">
+        <v>301.00900000000001</v>
+      </c>
+      <c r="J42">
+        <v>200</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-0.501</v>
+      </c>
+      <c r="N42">
+        <v>490.31799999999998</v>
+      </c>
+      <c r="O42">
+        <v>814.46600000000001</v>
+      </c>
+      <c r="P42">
+        <v>235.70500000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-44.08</v>
+      </c>
+      <c r="R42">
+        <v>40633</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>275.72199999999998</v>
+      </c>
+      <c r="U42">
+        <v>150.41900000000001</v>
+      </c>
+      <c r="V42">
+        <v>116.32299999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-86.727999999999994</v>
+      </c>
+      <c r="Y42">
+        <v>33.564</v>
+      </c>
+      <c r="Z42">
+        <v>-36.655000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>60.232999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>68.213999999999999</v>
+      </c>
+      <c r="D43">
+        <v>788.61</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>298.63200000000001</v>
+      </c>
+      <c r="G43">
+        <v>969.44399999999996</v>
+      </c>
+      <c r="H43">
+        <v>1570.693</v>
+      </c>
+      <c r="I43">
+        <v>533.43600000000004</v>
+      </c>
+      <c r="J43">
+        <v>200</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.52</v>
+      </c>
+      <c r="N43">
+        <v>726.70899999999995</v>
+      </c>
+      <c r="O43">
+        <v>1236.6590000000001</v>
+      </c>
+      <c r="P43">
+        <v>235.185</v>
+      </c>
+      <c r="Q43">
+        <v>24.788</v>
+      </c>
+      <c r="R43">
+        <v>40724</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>334.03399999999999</v>
+      </c>
+      <c r="U43">
+        <v>175.20699999999999</v>
+      </c>
+      <c r="V43">
+        <v>86.391999999999996</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-26.655000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>32.985999999999997</v>
+      </c>
+      <c r="Z43">
+        <v>-8.1020000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>68.213999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>62.46</v>
+      </c>
+      <c r="D44">
+        <v>821.83900000000006</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>285.22199999999998</v>
+      </c>
+      <c r="G44">
+        <v>1190.1130000000001</v>
+      </c>
+      <c r="H44">
+        <v>1961.558</v>
+      </c>
+      <c r="I44">
+        <v>750.10699999999997</v>
+      </c>
+      <c r="J44">
+        <v>200</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="N44">
+        <v>967.96600000000001</v>
+      </c>
+      <c r="O44">
+        <v>1573.2059999999999</v>
+      </c>
+      <c r="P44">
+        <v>234.65899999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-16.007999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40816</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>388.35199999999998</v>
+      </c>
+      <c r="U44">
+        <v>159.19900000000001</v>
+      </c>
+      <c r="V44">
+        <v>49.530999999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-23.957999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>32.4</v>
+      </c>
+      <c r="Z44">
+        <v>-5.8310000000000004</v>
+      </c>
+      <c r="AA44">
+        <v>62.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>35.219000000000001</v>
+      </c>
+      <c r="D45">
+        <v>875.57500000000005</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>300.42</v>
+      </c>
+      <c r="G45">
+        <v>1830.857</v>
+      </c>
+      <c r="H45">
+        <v>3069.1959999999999</v>
+      </c>
+      <c r="I45">
+        <v>86.992000000000004</v>
+      </c>
+      <c r="J45">
+        <v>400</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1225.0550000000001</v>
+      </c>
+      <c r="O45">
+        <v>2426.386</v>
+      </c>
+      <c r="P45">
+        <v>400</v>
+      </c>
+      <c r="Q45">
+        <v>348.85399999999998</v>
+      </c>
+      <c r="R45">
+        <v>40908</v>
+      </c>
+      <c r="S45">
+        <v>2348</v>
+      </c>
+      <c r="T45">
+        <v>642.80999999999995</v>
+      </c>
+      <c r="U45">
+        <v>508.053</v>
+      </c>
+      <c r="V45">
+        <v>65.465999999999994</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>398.99700000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-84.063999999999993</v>
+      </c>
+      <c r="AA45">
+        <v>35.219000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-4.5839999999999996</v>
+      </c>
+      <c r="D46">
+        <v>869.79100000000005</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>245.858</v>
+      </c>
+      <c r="G46">
+        <v>2058.741</v>
+      </c>
+      <c r="H46">
+        <v>3480.4589999999998</v>
+      </c>
+      <c r="I46">
+        <v>83.119</v>
+      </c>
+      <c r="J46">
+        <v>400</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="N46">
+        <v>1446.6659999999999</v>
+      </c>
+      <c r="O46">
+        <v>2817.0569999999998</v>
+      </c>
+      <c r="P46">
+        <v>418.22399999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-112.06100000000001</v>
+      </c>
+      <c r="R46">
+        <v>40999</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>663.40200000000004</v>
+      </c>
+      <c r="U46">
+        <v>395.99200000000002</v>
+      </c>
+      <c r="V46">
+        <v>19.109000000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>4.032</v>
+      </c>
+      <c r="Y46">
+        <v>14.224</v>
+      </c>
+      <c r="Z46">
+        <v>-118.857</v>
+      </c>
+      <c r="AA46">
+        <v>-4.5839999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>6.1639999999999997</v>
+      </c>
+      <c r="D47">
+        <v>889.16300000000001</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>245.73500000000001</v>
+      </c>
+      <c r="G47">
+        <v>2137.7849999999999</v>
+      </c>
+      <c r="H47">
+        <v>3478.29</v>
+      </c>
+      <c r="I47">
+        <v>90.960999999999999</v>
+      </c>
+      <c r="J47">
+        <v>400</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="N47">
+        <v>1498.8440000000001</v>
+      </c>
+      <c r="O47">
+        <v>2790.0639999999999</v>
+      </c>
+      <c r="P47">
+        <v>417.26799999999997</v>
+      </c>
+      <c r="Q47">
+        <v>6.2590000000000003</v>
+      </c>
+      <c r="R47">
+        <v>41090</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>688.226</v>
+      </c>
+      <c r="U47">
+        <v>402.25099999999998</v>
+      </c>
+      <c r="V47">
+        <v>19.407</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>13.488</v>
+      </c>
+      <c r="Z47">
+        <v>-2.415</v>
+      </c>
+      <c r="AA47">
+        <v>6.1639999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="D48">
+        <v>905.08900000000006</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>242.45099999999999</v>
+      </c>
+      <c r="G48">
+        <v>2225.018</v>
+      </c>
+      <c r="H48">
+        <v>3808.8330000000001</v>
+      </c>
+      <c r="I48">
+        <v>91.510999999999996</v>
+      </c>
+      <c r="J48">
+        <v>400</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="N48">
+        <v>1598.223</v>
+      </c>
+      <c r="O48">
+        <v>3091.9929999999999</v>
+      </c>
+      <c r="P48">
+        <v>416.18700000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-31.952999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41182</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>716.84</v>
+      </c>
+      <c r="U48">
+        <v>370.298</v>
+      </c>
+      <c r="V48">
+        <v>-2.9249999999999998</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-0.158</v>
+      </c>
+      <c r="Y48">
+        <v>12.752000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>-12.912000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>7.8970000000000002</v>
+      </c>
+      <c r="D49">
+        <v>945.23900000000003</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>249.37200000000001</v>
+      </c>
+      <c r="G49">
+        <v>2240.7910000000002</v>
+      </c>
+      <c r="H49">
+        <v>3967.89</v>
+      </c>
+      <c r="I49">
+        <v>86.468000000000004</v>
+      </c>
+      <c r="J49">
+        <v>400</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1675.9259999999999</v>
+      </c>
+      <c r="O49">
+        <v>3223.2170000000001</v>
+      </c>
+      <c r="P49">
+        <v>400</v>
+      </c>
+      <c r="Q49">
+        <v>-80.007000000000005</v>
+      </c>
+      <c r="R49">
+        <v>41274</v>
+      </c>
+      <c r="S49">
+        <v>2045</v>
+      </c>
+      <c r="T49">
+        <v>744.673</v>
+      </c>
+      <c r="U49">
+        <v>290.291</v>
+      </c>
+      <c r="V49">
+        <v>-14.005000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-30.818999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>7.8970000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1023.961</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>287.00900000000001</v>
+      </c>
+      <c r="G50">
+        <v>2557.1</v>
+      </c>
+      <c r="H50">
+        <v>4363.2889999999998</v>
+      </c>
+      <c r="I50">
+        <v>102.822</v>
+      </c>
+      <c r="J50">
+        <v>700</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-219.76499999999999</v>
+      </c>
+      <c r="N50">
+        <v>1688.7139999999999</v>
+      </c>
+      <c r="O50">
+        <v>3550.37</v>
+      </c>
+      <c r="P50">
+        <v>777.6</v>
+      </c>
+      <c r="Q50">
+        <v>127.76</v>
+      </c>
+      <c r="R50">
+        <v>41364</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>812.91899999999998</v>
+      </c>
+      <c r="U50">
+        <v>418.05099999999999</v>
+      </c>
+      <c r="V50">
+        <v>-12.25</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>321.58199999999999</v>
+      </c>
+      <c r="Y50">
+        <v>52.366</v>
+      </c>
+      <c r="Z50">
+        <v>-149.97499999999999</v>
+      </c>
+      <c r="AA50">
+        <v>2.6890000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>29.471</v>
+      </c>
+      <c r="D51">
+        <v>1069.3720000000001</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>308.69799999999998</v>
+      </c>
+      <c r="G51">
+        <v>2570.3220000000001</v>
+      </c>
+      <c r="H51">
+        <v>4480.7510000000002</v>
+      </c>
+      <c r="I51">
+        <v>103.441</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.255</v>
+      </c>
+      <c r="N51">
+        <v>1670.2639999999999</v>
+      </c>
+      <c r="O51">
+        <v>3375.1289999999999</v>
+      </c>
+      <c r="P51">
+        <v>563.4</v>
+      </c>
+      <c r="Q51">
+        <v>-47.372999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41455</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1105.6220000000001</v>
+      </c>
+      <c r="U51">
+        <v>370.678</v>
+      </c>
+      <c r="V51">
+        <v>33.942999999999998</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>48.959000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>63.4</v>
+      </c>
+      <c r="Z51">
+        <v>-106.661</v>
+      </c>
+      <c r="AA51">
+        <v>29.471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>31.821999999999999</v>
+      </c>
+      <c r="D52">
+        <v>1105.999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>307.09899999999999</v>
+      </c>
+      <c r="G52">
+        <v>2849.2779999999998</v>
+      </c>
+      <c r="H52">
+        <v>4901.3249999999998</v>
+      </c>
+      <c r="I52">
+        <v>100.899</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="N52">
+        <v>1935.136</v>
+      </c>
+      <c r="O52">
+        <v>3696.9549999999999</v>
+      </c>
+      <c r="P52">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="Q52">
+        <v>68.378</v>
+      </c>
+      <c r="R52">
+        <v>41547</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1204.3699999999999</v>
+      </c>
+      <c r="U52">
+        <v>439.05599999999998</v>
+      </c>
+      <c r="V52">
+        <v>34.692999999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>45.795000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>12.8</v>
+      </c>
+      <c r="Z52">
+        <v>13.959</v>
+      </c>
+      <c r="AA52">
+        <v>31.821999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>48.420999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1175.23</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>354.553</v>
+      </c>
+      <c r="G53">
+        <v>3058.7629999999999</v>
+      </c>
+      <c r="H53">
+        <v>5412.5630000000001</v>
+      </c>
+      <c r="I53">
+        <v>108.435</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2154.203</v>
+      </c>
+      <c r="O53">
+        <v>4079.002</v>
+      </c>
+      <c r="P53">
+        <v>500</v>
+      </c>
+      <c r="Q53">
+        <v>165.90899999999999</v>
+      </c>
+      <c r="R53">
+        <v>41639</v>
+      </c>
+      <c r="S53">
+        <v>2022</v>
+      </c>
+      <c r="T53">
+        <v>1333.5609999999999</v>
+      </c>
+      <c r="U53">
+        <v>604.96500000000003</v>
+      </c>
+      <c r="V53">
+        <v>41.445</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>59.927999999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>100.84</v>
+      </c>
+      <c r="AA53">
+        <v>48.420999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>53.115000000000002</v>
+      </c>
+      <c r="D54">
+        <v>1270.0889999999999</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>400.90300000000002</v>
+      </c>
+      <c r="G54">
+        <v>3586.7840000000001</v>
+      </c>
+      <c r="H54">
+        <v>6048.1059999999998</v>
+      </c>
+      <c r="I54">
+        <v>133.88300000000001</v>
+      </c>
+      <c r="J54">
+        <v>900</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="N54">
+        <v>2263.6529999999998</v>
+      </c>
+      <c r="O54">
+        <v>4569.7479999999996</v>
+      </c>
+      <c r="P54">
+        <v>911.3</v>
+      </c>
+      <c r="Q54">
+        <v>552.48500000000001</v>
+      </c>
+      <c r="R54">
+        <v>41729</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1478.3579999999999</v>
+      </c>
+      <c r="U54">
+        <v>1157.45</v>
+      </c>
+      <c r="V54">
+        <v>36.359000000000002</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>458.18599999999998</v>
+      </c>
+      <c r="Y54">
+        <v>11.3</v>
+      </c>
+      <c r="Z54">
+        <v>85.591999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>53.115000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>71.018000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1340.4069999999999</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>425.55900000000003</v>
+      </c>
+      <c r="G55">
+        <v>3668.38</v>
+      </c>
+      <c r="H55">
+        <v>6325.8220000000001</v>
+      </c>
+      <c r="I55">
+        <v>137.226</v>
+      </c>
+      <c r="J55">
+        <v>900</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="N55">
+        <v>2335.1239999999998</v>
+      </c>
+      <c r="O55">
+        <v>4716.1170000000002</v>
+      </c>
+      <c r="P55">
+        <v>910.9</v>
+      </c>
+      <c r="Q55">
+        <v>56.793999999999997</v>
+      </c>
+      <c r="R55">
+        <v>41820</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1609.7049999999999</v>
+      </c>
+      <c r="U55">
+        <v>1214.2439999999999</v>
+      </c>
+      <c r="V55">
+        <v>56.024000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>28.472999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>10.9</v>
+      </c>
+      <c r="Z55">
+        <v>10.768000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>71.018000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>59.295000000000002</v>
+      </c>
+      <c r="D56">
+        <v>1409.432</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>455.03800000000001</v>
+      </c>
+      <c r="G56">
+        <v>3823.482</v>
+      </c>
+      <c r="H56">
+        <v>6778.3289999999997</v>
+      </c>
+      <c r="I56">
+        <v>150.374</v>
+      </c>
+      <c r="J56">
+        <v>900</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="N56">
+        <v>2548.6550000000002</v>
+      </c>
+      <c r="O56">
+        <v>5053.4549999999999</v>
+      </c>
+      <c r="P56">
+        <v>910.1</v>
+      </c>
+      <c r="Q56">
+        <v>-31.027000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41912</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1724.874</v>
+      </c>
+      <c r="U56">
+        <v>1183.2170000000001</v>
+      </c>
+      <c r="V56">
+        <v>-37.439</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>30.661999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>10.1</v>
+      </c>
+      <c r="Z56">
+        <v>15.81</v>
+      </c>
+      <c r="AA56">
+        <v>59.295000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>83.370999999999995</v>
+      </c>
+      <c r="D57">
+        <v>1484.7280000000001</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>470.39600000000002</v>
+      </c>
+      <c r="G57">
+        <v>3927.0529999999999</v>
+      </c>
+      <c r="H57">
+        <v>7042.5</v>
+      </c>
+      <c r="I57">
+        <v>201.58099999999999</v>
+      </c>
+      <c r="J57">
+        <v>885.84900000000005</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2663.154</v>
+      </c>
+      <c r="O57">
+        <v>5184.7920000000004</v>
+      </c>
+      <c r="P57">
+        <v>885.84900000000005</v>
+      </c>
+      <c r="Q57">
+        <v>-69.608999999999995</v>
+      </c>
+      <c r="R57">
+        <v>42004</v>
+      </c>
+      <c r="S57">
+        <v>2189</v>
+      </c>
+      <c r="T57">
+        <v>1857.7080000000001</v>
+      </c>
+      <c r="U57">
+        <v>1113.6079999999999</v>
+      </c>
+      <c r="V57">
+        <v>-38.460999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>24.390999999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-11.853999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>83.370999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="D58">
+        <v>1573.1289999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>526.72799999999995</v>
+      </c>
+      <c r="G58">
+        <v>5539.0559999999996</v>
+      </c>
+      <c r="H58">
+        <v>9240.6260000000002</v>
+      </c>
+      <c r="I58">
+        <v>190.56700000000001</v>
+      </c>
+      <c r="J58">
+        <v>2400</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3008.8490000000002</v>
+      </c>
+      <c r="O58">
+        <v>7331.4120000000003</v>
+      </c>
+      <c r="P58">
+        <v>2409</v>
+      </c>
+      <c r="Q58">
+        <v>1341.1690000000001</v>
+      </c>
+      <c r="R58">
+        <v>42094</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1909.2139999999999</v>
+      </c>
+      <c r="U58">
+        <v>2454.777</v>
+      </c>
+      <c r="V58">
+        <v>-127.38200000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1522.434</v>
+      </c>
+      <c r="Y58">
+        <v>9</v>
+      </c>
+      <c r="Z58">
+        <v>-7.1050000000000004</v>
+      </c>
+      <c r="AA58">
+        <v>23.696000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>26.335000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1644.694</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>522.94200000000001</v>
+      </c>
+      <c r="G59">
+        <v>5600.51</v>
+      </c>
+      <c r="H59">
+        <v>9654.8610000000008</v>
+      </c>
+      <c r="I59">
+        <v>211.72900000000001</v>
+      </c>
+      <c r="J59">
+        <v>2400</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3220.069</v>
+      </c>
+      <c r="O59">
+        <v>7622.7860000000001</v>
+      </c>
+      <c r="P59">
+        <v>2408.1</v>
+      </c>
+      <c r="Q59">
+        <v>-160.905</v>
+      </c>
+      <c r="R59">
+        <v>42185</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2032.075</v>
+      </c>
+      <c r="U59">
+        <v>2293.8719999999998</v>
+      </c>
+      <c r="V59">
+        <v>-181.34299999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>62.546999999999997</v>
+      </c>
+      <c r="Y59">
+        <v>8.1</v>
+      </c>
+      <c r="Z59">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>26.335000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>29.431999999999999</v>
+      </c>
+      <c r="D60">
+        <v>1738.355</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>564.39700000000005</v>
+      </c>
+      <c r="G60">
+        <v>5569.7129999999997</v>
+      </c>
+      <c r="H60">
+        <v>9916.2669999999998</v>
+      </c>
+      <c r="I60">
+        <v>209.36500000000001</v>
+      </c>
+      <c r="J60">
+        <v>2400</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3341.4180000000001</v>
+      </c>
+      <c r="O60">
+        <v>7748.9489999999996</v>
+      </c>
+      <c r="P60">
+        <v>2421.8000000000002</v>
+      </c>
+      <c r="Q60">
+        <v>-178.435</v>
+      </c>
+      <c r="R60">
+        <v>42277</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2167.3180000000002</v>
+      </c>
+      <c r="U60">
+        <v>2115.4369999999999</v>
+      </c>
+      <c r="V60">
+        <v>-195.96899999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>72.754000000000005</v>
+      </c>
+      <c r="Y60">
+        <v>21.8</v>
+      </c>
+      <c r="Z60">
+        <v>8.5679999999999996</v>
+      </c>
+      <c r="AA60">
+        <v>29.431999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>43.177999999999997</v>
+      </c>
+      <c r="D61">
+        <v>1823.3330000000001</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>573.96799999999996</v>
+      </c>
+      <c r="G61">
+        <v>5431.84</v>
+      </c>
+      <c r="H61">
+        <v>10202.870999999999</v>
+      </c>
+      <c r="I61">
+        <v>253.49100000000001</v>
+      </c>
+      <c r="J61">
+        <v>2371.3620000000001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3529.6239999999998</v>
+      </c>
+      <c r="O61">
+        <v>7979.4449999999997</v>
+      </c>
+      <c r="P61">
+        <v>2371.3620000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-306.10700000000003</v>
+      </c>
+      <c r="R61">
+        <v>42369</v>
+      </c>
+      <c r="S61">
+        <v>3100</v>
+      </c>
+      <c r="T61">
+        <v>2223.4259999999999</v>
+      </c>
+      <c r="U61">
+        <v>1809.33</v>
+      </c>
+      <c r="V61">
+        <v>-244.745</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-17.457999999999998</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-9.17</v>
+      </c>
+      <c r="AA61">
+        <v>43.177999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>27.658000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1957.7360000000001</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>588.19600000000003</v>
+      </c>
+      <c r="G62">
+        <v>5543.8360000000002</v>
+      </c>
+      <c r="H62">
+        <v>11262.273999999999</v>
+      </c>
+      <c r="I62">
+        <v>231.91399999999999</v>
+      </c>
+      <c r="J62">
+        <v>2372.2179999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3933.6320000000001</v>
+      </c>
+      <c r="O62">
+        <v>8945.0409999999993</v>
+      </c>
+      <c r="P62">
+        <v>2372.2179999999998</v>
+      </c>
+      <c r="Q62">
+        <v>-204.08600000000001</v>
+      </c>
+      <c r="R62">
+        <v>42460</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2317.2330000000002</v>
+      </c>
+      <c r="U62">
+        <v>1605.2439999999999</v>
+      </c>
+      <c r="V62">
+        <v>-228.59</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>14.907</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>36.250999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>27.658000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>40.755000000000003</v>
+      </c>
+      <c r="D63">
+        <v>2105.2040000000002</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>632.10599999999999</v>
+      </c>
+      <c r="G63">
+        <v>5386.9179999999997</v>
+      </c>
+      <c r="H63">
+        <v>11593.507</v>
+      </c>
+      <c r="I63">
+        <v>240.458</v>
+      </c>
+      <c r="J63">
+        <v>2373.085</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4051.837</v>
+      </c>
+      <c r="O63">
+        <v>9177.6730000000007</v>
+      </c>
+      <c r="P63">
+        <v>2373.085</v>
+      </c>
+      <c r="Q63">
+        <v>-214.31899999999999</v>
+      </c>
+      <c r="R63">
+        <v>42551</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2415.8339999999998</v>
+      </c>
+      <c r="U63">
+        <v>1390.925</v>
+      </c>
+      <c r="V63">
+        <v>-226.29300000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>17.611999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>24.934999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>40.755000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>51.517000000000003</v>
+      </c>
+      <c r="D64">
+        <v>2290.1880000000001</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>757.34400000000005</v>
+      </c>
+      <c r="G64">
+        <v>5193.893</v>
+      </c>
+      <c r="H64">
+        <v>12347.338</v>
+      </c>
+      <c r="I64">
+        <v>285.75299999999999</v>
+      </c>
+      <c r="J64">
+        <v>2373.9659999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4411.4049999999997</v>
+      </c>
+      <c r="O64">
+        <v>9818.3719999999994</v>
+      </c>
+      <c r="P64">
+        <v>2373.9659999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-421.767</v>
+      </c>
+      <c r="R64">
+        <v>42643</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2528.9659999999999</v>
+      </c>
+      <c r="U64">
+        <v>969.15800000000002</v>
+      </c>
+      <c r="V64">
+        <v>-461.94099999999997</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>16.638999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>68.465999999999994</v>
+      </c>
+      <c r="AA64">
+        <v>51.517000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>66.748000000000005</v>
+      </c>
+      <c r="D65">
+        <v>2477.5410000000002</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>823.12199999999996</v>
+      </c>
+      <c r="G65">
+        <v>5720.2910000000002</v>
+      </c>
+      <c r="H65">
+        <v>13586.61</v>
+      </c>
+      <c r="I65">
+        <v>312.84199999999998</v>
+      </c>
+      <c r="J65">
+        <v>3364.3110000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4586.6570000000002</v>
+      </c>
+      <c r="O65">
+        <v>10906.81</v>
+      </c>
+      <c r="P65">
+        <v>3364.3110000000001</v>
+      </c>
+      <c r="Q65">
+        <v>498.41800000000001</v>
+      </c>
+      <c r="R65">
+        <v>42735</v>
+      </c>
+      <c r="S65">
+        <v>3200</v>
+      </c>
+      <c r="T65">
+        <v>2679.8</v>
+      </c>
+      <c r="U65">
+        <v>1467.576</v>
+      </c>
+      <c r="V65">
+        <v>-557.16</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1042.472</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>105.884</v>
+      </c>
+      <c r="AA65">
+        <v>66.748000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>178.22200000000001</v>
+      </c>
+      <c r="D66">
+        <v>2636.6350000000002</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>979.61099999999999</v>
+      </c>
+      <c r="G66">
+        <v>5660.33</v>
+      </c>
+      <c r="H66">
+        <v>14359.096</v>
+      </c>
+      <c r="I66">
+        <v>294.83100000000002</v>
+      </c>
+      <c r="J66">
+        <v>3365.431</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4911.2290000000003</v>
+      </c>
+      <c r="O66">
+        <v>11385.413</v>
+      </c>
+      <c r="P66">
+        <v>3383.3310000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-389.75200000000001</v>
+      </c>
+      <c r="R66">
+        <v>42825</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2973.683</v>
+      </c>
+      <c r="U66">
+        <v>1077.8240000000001</v>
+      </c>
+      <c r="V66">
+        <v>-343.85599999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>24.239000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>178.22200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D67">
+        <v>2785.4639999999999</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>883.15599999999995</v>
+      </c>
+      <c r="G67">
+        <v>6700.7849999999999</v>
+      </c>
+      <c r="H67">
+        <v>16517.223000000002</v>
+      </c>
+      <c r="I67">
+        <v>273.39800000000002</v>
+      </c>
+      <c r="J67">
+        <v>4836.5020000000004</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>5122.9449999999997</v>
+      </c>
+      <c r="O67">
+        <v>13404.723</v>
+      </c>
+      <c r="P67">
+        <v>4836.5020000000004</v>
+      </c>
+      <c r="Q67">
+        <v>840.95299999999997</v>
+      </c>
+      <c r="R67">
+        <v>42916</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3112.5</v>
+      </c>
+      <c r="U67">
+        <v>1918.777</v>
+      </c>
+      <c r="V67">
+        <v>-534.52800000000002</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1420.386</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="AA67">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>129.59</v>
+      </c>
+      <c r="D68">
+        <v>2984.8589999999999</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>991.87900000000002</v>
+      </c>
+      <c r="G68">
+        <v>6385.348</v>
+      </c>
+      <c r="H68">
+        <v>16951.54</v>
+      </c>
+      <c r="I68">
+        <v>301.44299999999998</v>
+      </c>
+      <c r="J68">
+        <v>4888.7830000000004</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5310.6769999999997</v>
+      </c>
+      <c r="O68">
+        <v>13624.179</v>
+      </c>
+      <c r="P68">
+        <v>4888.7830000000004</v>
+      </c>
+      <c r="Q68">
+        <v>-172.30799999999999</v>
+      </c>
+      <c r="R68">
+        <v>43008</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3327.3609999999999</v>
+      </c>
+      <c r="U68">
+        <v>1746.4690000000001</v>
+      </c>
+      <c r="V68">
+        <v>-419.60700000000003</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>34.421999999999997</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>247.47900000000001</v>
+      </c>
+      <c r="AA68">
+        <v>129.59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>185.517</v>
+      </c>
+      <c r="D69">
+        <v>3285.7550000000001</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>805.06700000000001</v>
+      </c>
+      <c r="G69">
+        <v>7669.9740000000002</v>
+      </c>
+      <c r="H69">
+        <v>19012.741999999998</v>
+      </c>
+      <c r="I69">
+        <v>359.55500000000001</v>
+      </c>
+      <c r="J69">
+        <v>6499.4319999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5466.3119999999999</v>
+      </c>
+      <c r="O69">
+        <v>15430.786</v>
+      </c>
+      <c r="P69">
+        <v>6499.4319999999998</v>
+      </c>
+      <c r="Q69">
+        <v>1076.326</v>
+      </c>
+      <c r="R69">
+        <v>43100</v>
+      </c>
+      <c r="S69">
+        <v>4800</v>
+      </c>
+      <c r="T69">
+        <v>3581.9560000000001</v>
+      </c>
+      <c r="U69">
+        <v>2822.7950000000001</v>
+      </c>
+      <c r="V69">
+        <v>-487.95699999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1597.943</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>185.517</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>290.12400000000002</v>
+      </c>
+      <c r="D70">
+        <v>3700.8560000000002</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1400.277</v>
+      </c>
+      <c r="G70">
+        <v>7817.576</v>
+      </c>
+      <c r="H70">
+        <v>20152.796999999999</v>
+      </c>
+      <c r="I70">
+        <v>436.18299999999999</v>
+      </c>
+      <c r="J70">
+        <v>6542.3729999999996</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>6005.5870000000004</v>
+      </c>
+      <c r="O70">
+        <v>16132.066999999999</v>
+      </c>
+      <c r="P70">
+        <v>6542.3729999999996</v>
+      </c>
+      <c r="Q70">
+        <v>-223.31800000000001</v>
+      </c>
+      <c r="R70">
+        <v>43190</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>4020.73</v>
+      </c>
+      <c r="U70">
+        <v>2593.6660000000002</v>
+      </c>
+      <c r="V70">
+        <v>-236.75700000000001</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>56.014000000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>290.12400000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>384.34899999999999</v>
+      </c>
+      <c r="D71">
+        <v>3907.27</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1504.8389999999999</v>
+      </c>
+      <c r="G71">
+        <v>9346.8889999999992</v>
+      </c>
+      <c r="H71">
+        <v>22663.537</v>
+      </c>
+      <c r="I71">
+        <v>448.21899999999999</v>
+      </c>
+      <c r="J71">
+        <v>8342.0669999999991</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>6079.6409999999996</v>
+      </c>
+      <c r="O71">
+        <v>18166.937000000002</v>
+      </c>
+      <c r="P71">
+        <v>8342.0669999999991</v>
+      </c>
+      <c r="Q71">
+        <v>1314.5170000000001</v>
+      </c>
+      <c r="R71">
+        <v>43281</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4496.6000000000004</v>
+      </c>
+      <c r="U71">
+        <v>3906.357</v>
+      </c>
+      <c r="V71">
+        <v>-518.23900000000003</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1909.412</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>384.34899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>402.83499999999998</v>
+      </c>
+      <c r="D72">
+        <v>3999.3739999999998</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1468.2460000000001</v>
+      </c>
+      <c r="G72">
+        <v>8729.9809999999998</v>
+      </c>
+      <c r="H72">
+        <v>23366.228999999999</v>
+      </c>
+      <c r="I72">
+        <v>441.42700000000002</v>
+      </c>
+      <c r="J72">
+        <v>8336.5859999999993</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6298.24</v>
+      </c>
+      <c r="O72">
+        <v>18356.576000000001</v>
+      </c>
+      <c r="P72">
+        <v>8336.5859999999993</v>
+      </c>
+      <c r="Q72">
+        <v>-835.43</v>
+      </c>
+      <c r="R72">
+        <v>43373</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5009.6530000000002</v>
+      </c>
+      <c r="U72">
+        <v>3067.5340000000001</v>
+      </c>
+      <c r="V72">
+        <v>-690.41099999999994</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>29.236999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>402.83499999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>133.934</v>
+      </c>
+      <c r="D73">
+        <v>4186.8410000000003</v>
+      </c>
+      <c r="E73">
+        <v>362.71199999999999</v>
+      </c>
+      <c r="F73">
+        <v>1453.441</v>
+      </c>
+      <c r="G73">
+        <v>9694.1350000000002</v>
+      </c>
+      <c r="H73">
+        <v>25974.400000000001</v>
+      </c>
+      <c r="I73">
+        <v>562.98500000000001</v>
+      </c>
+      <c r="J73">
+        <v>10360.058000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>6487.32</v>
+      </c>
+      <c r="O73">
+        <v>20735.634999999998</v>
+      </c>
+      <c r="P73">
+        <v>10360.058000000001</v>
+      </c>
+      <c r="Q73">
+        <v>733.47699999999998</v>
+      </c>
+      <c r="R73">
+        <v>43465</v>
+      </c>
+      <c r="S73">
+        <v>7100</v>
+      </c>
+      <c r="T73">
+        <v>5238.7650000000003</v>
+      </c>
+      <c r="U73">
+        <v>3794.4830000000002</v>
+      </c>
+      <c r="V73">
+        <v>-1235.0719999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>2053.864</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>133.934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>344.05200000000002</v>
+      </c>
+      <c r="D74">
+        <v>4520.9920000000002</v>
+      </c>
+      <c r="E74">
+        <v>432.95499999999998</v>
+      </c>
+      <c r="F74">
+        <v>1650.3779999999999</v>
+      </c>
+      <c r="G74">
+        <v>4168.9070000000002</v>
+      </c>
+      <c r="H74">
+        <v>27218.632000000001</v>
+      </c>
+      <c r="I74">
+        <v>439.49599999999998</v>
+      </c>
+      <c r="J74">
+        <v>10305.022999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>6857.8069999999998</v>
+      </c>
+      <c r="O74">
+        <v>21515.574000000001</v>
+      </c>
+      <c r="P74">
+        <v>11192.545</v>
+      </c>
+      <c r="Q74">
+        <v>-441.94400000000002</v>
+      </c>
+      <c r="R74">
+        <v>43555</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5703.058</v>
+      </c>
+      <c r="U74">
+        <v>3348.5569999999998</v>
+      </c>
+      <c r="V74">
+        <v>-379.79899999999998</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>22.972000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>765.024</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>344.05200000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="D75">
+        <v>4923.116</v>
+      </c>
+      <c r="E75">
+        <v>492.03399999999999</v>
+      </c>
+      <c r="F75">
+        <v>1917.4590000000001</v>
+      </c>
+      <c r="G75">
+        <v>5877.1570000000002</v>
+      </c>
+      <c r="H75">
+        <v>30171.339</v>
+      </c>
+      <c r="I75">
+        <v>442.19400000000002</v>
+      </c>
+      <c r="J75">
+        <v>12594.135</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6933.9840000000004</v>
+      </c>
+      <c r="O75">
+        <v>24065.791000000001</v>
+      </c>
+      <c r="P75">
+        <v>13678.117</v>
+      </c>
+      <c r="Q75">
+        <v>1658.1079999999999</v>
+      </c>
+      <c r="R75">
+        <v>43646</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6105.5479999999998</v>
+      </c>
+      <c r="U75">
+        <v>5004.2470000000003</v>
+      </c>
+      <c r="V75">
+        <v>-543.75400000000002</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>2246.9</v>
+      </c>
+      <c r="Y75">
+        <v>946.32</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>270.64999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>665.24400000000003</v>
+      </c>
+      <c r="D76">
+        <v>5244.9049999999997</v>
+      </c>
+      <c r="E76">
+        <v>466.16800000000001</v>
+      </c>
+      <c r="F76">
+        <v>2146.9859999999999</v>
+      </c>
+      <c r="G76">
+        <v>5327.7579999999998</v>
+      </c>
+      <c r="H76">
+        <v>30941.710999999999</v>
+      </c>
+      <c r="I76">
+        <v>444.12900000000002</v>
+      </c>
+      <c r="J76">
+        <v>12425.745999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7257.9</v>
+      </c>
+      <c r="O76">
+        <v>24080.205999999998</v>
+      </c>
+      <c r="P76">
+        <v>13539.365</v>
+      </c>
+      <c r="Q76">
+        <v>-568.48400000000004</v>
+      </c>
+      <c r="R76">
+        <v>43738</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6861.5050000000001</v>
+      </c>
+      <c r="U76">
+        <v>4435.018</v>
+      </c>
+      <c r="V76">
+        <v>-501.79399999999998</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>11.989000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>952.678</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>665.24400000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>586.97</v>
+      </c>
+      <c r="D77">
+        <v>5467.4340000000002</v>
+      </c>
+      <c r="E77">
+        <v>454.399</v>
+      </c>
+      <c r="F77">
+        <v>2001.4110000000001</v>
+      </c>
+      <c r="G77">
+        <v>6178.5039999999999</v>
+      </c>
+      <c r="H77">
+        <v>33975.712</v>
+      </c>
+      <c r="I77">
+        <v>674.34699999999998</v>
+      </c>
+      <c r="J77">
+        <v>14759.26</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6855.6959999999999</v>
+      </c>
+      <c r="O77">
+        <v>26393.555</v>
+      </c>
+      <c r="P77">
+        <v>16372.494000000001</v>
+      </c>
+      <c r="Q77">
+        <v>584.06500000000005</v>
+      </c>
+      <c r="R77">
+        <v>43830</v>
+      </c>
+      <c r="S77">
+        <v>8600</v>
+      </c>
+      <c r="T77">
+        <v>7582.1570000000002</v>
+      </c>
+      <c r="U77">
+        <v>5018.4369999999999</v>
+      </c>
+      <c r="V77">
+        <v>-1461.9749999999999</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>2223.8009999999999</v>
+      </c>
+      <c r="Y77">
+        <v>1422.6120000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>586.97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>709.06700000000001</v>
+      </c>
+      <c r="D78">
+        <v>5767.6909999999998</v>
+      </c>
+      <c r="E78">
+        <v>539.91600000000005</v>
+      </c>
+      <c r="F78">
+        <v>2167.9899999999998</v>
+      </c>
+      <c r="G78">
+        <v>6447.7809999999999</v>
+      </c>
+      <c r="H78">
+        <v>35059.910000000003</v>
+      </c>
+      <c r="I78">
+        <v>545.48800000000006</v>
+      </c>
+      <c r="J78">
+        <v>14170.691999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>7853.7250000000004</v>
+      </c>
+      <c r="O78">
+        <v>26650.616000000002</v>
+      </c>
+      <c r="P78">
+        <v>16265.501</v>
+      </c>
+      <c r="Q78">
+        <v>134.40100000000001</v>
+      </c>
+      <c r="R78">
+        <v>43921</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>8409.2939999999999</v>
+      </c>
+      <c r="U78">
+        <v>5151.884</v>
+      </c>
+      <c r="V78">
+        <v>259.91199999999998</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>43.694000000000003</v>
+      </c>
+      <c r="Y78">
+        <v>1400</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>709.06700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>720.19600000000003</v>
+      </c>
+      <c r="D79">
+        <v>6148.2860000000001</v>
+      </c>
+      <c r="E79">
+        <v>565.66800000000001</v>
+      </c>
+      <c r="F79">
+        <v>2504.5790000000002</v>
+      </c>
+      <c r="G79">
+        <v>8564.1389999999992</v>
+      </c>
+      <c r="H79">
+        <v>37175.281000000003</v>
+      </c>
+      <c r="I79">
+        <v>446.66800000000001</v>
+      </c>
+      <c r="J79">
+        <v>15294.998</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>7626.4179999999997</v>
+      </c>
+      <c r="O79">
+        <v>27840.527999999998</v>
+      </c>
+      <c r="P79">
+        <v>17708.159</v>
+      </c>
+      <c r="Q79">
+        <v>2001.8589999999999</v>
+      </c>
+      <c r="R79">
+        <v>44012</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>9334.7530000000006</v>
+      </c>
+      <c r="U79">
+        <v>7153.2479999999996</v>
+      </c>
+      <c r="V79">
+        <v>1041.076</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>1090.9649999999999</v>
+      </c>
+      <c r="Y79">
+        <v>1687</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>720.19600000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>789.976</v>
+      </c>
+      <c r="D80">
+        <v>6435.6369999999997</v>
+      </c>
+      <c r="E80">
+        <v>604.78899999999999</v>
+      </c>
+      <c r="F80">
+        <v>2567.886</v>
+      </c>
+      <c r="G80">
+        <v>9826.48</v>
+      </c>
+      <c r="H80">
+        <v>38622.542999999998</v>
+      </c>
+      <c r="I80">
+        <v>541.298</v>
+      </c>
+      <c r="J80">
+        <v>15547.616</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>7939.7950000000001</v>
+      </c>
+      <c r="O80">
+        <v>28289.22</v>
+      </c>
+      <c r="P80">
+        <v>18137.133000000002</v>
+      </c>
+      <c r="Q80">
+        <v>1242.2339999999999</v>
+      </c>
+      <c r="R80">
+        <v>44104</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10333.323</v>
+      </c>
+      <c r="U80">
+        <v>8392.3909999999996</v>
+      </c>
+      <c r="V80">
+        <v>1263.761</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>68.665000000000006</v>
+      </c>
+      <c r="Y80">
+        <v>1853</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>789.976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>542.15599999999995</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>6644.442</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>610.81899999999996</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>2479.2820000000002</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>9761.58</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>39280.358999999997</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>656.18299999999999</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>15809.094999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>7805.7849999999999</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>28215.118999999999</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>18510.826000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-183.41</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>9400</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>11065.24</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>8205.5499999999993</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>-137.672</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>33.987000000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>1945.6310000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>542.15599999999995</v>
       </c>
     </row>
